--- a/Init/testCaseData.xlsx
+++ b/Init/testCaseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74fc267466bd8fde/Projects/UIPath/GitHub/Test Driven Development Template/Init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC1048B441986CFC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E62B607A-9267-4732-AA9B-9939B693AF7A}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC1048B441986CFC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48D45AFC-D010-40E7-9E03-E9164734C000}"/>
   <bookViews>
-    <workbookView xWindow="754" yWindow="754" windowWidth="17957" windowHeight="9892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="549" yWindow="2126" windowWidth="17957" windowHeight="9891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Test that config file has been read into variable</t>
-  </si>
-  <si>
     <t>ExpectedValue</t>
   </si>
   <si>
@@ -45,7 +42,10 @@
     <t>test</t>
   </si>
   <si>
-    <t>Hello World</t>
+    <t>Leave this line here for testing</t>
+  </si>
+  <si>
+    <t>read config successful</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -389,21 +389,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
